--- a/biology/Botanique/Podocarpus_parlatorei/Podocarpus_parlatorei.xlsx
+++ b/biology/Botanique/Podocarpus_parlatorei/Podocarpus_parlatorei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podocarpus parlatorei est une espèce de conifères de la famille des Podocarpaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre mesure 15 à 30 m de haut. C'est une espèce pionnière dans son habitat car résistant bien au froid[2].
-Cette espèce est pollinisée par le vent et les fruits sont dispersés par les oiseaux Penelope, Patagioenas fasciata et par des mammifères comme la moufette Conepatus chinga[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre mesure 15 à 30 m de haut. C'est une espèce pionnière dans son habitat car résistant bien au froid.
+Cette espèce est pollinisée par le vent et les fruits sont dispersés par les oiseaux Penelope, Patagioenas fasciata et par des mammifères comme la moufette Conepatus chinga.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique parlatorei a été attribuée en hommage au botaniste italien Filippo Parlatore qui avait décrit cette espèce sous le nom de Podocarpus angustifolius, nom déjà attribué à une autre espèce décrite antérieurement (en) par Grisebach.
 </t>
@@ -574,9 +590,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette espèce dans la cordillère des Andes dans le nord-ouest de l'Argentine et les régions voisines de Bolivie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette espèce dans la cordillère des Andes dans le nord-ouest de l'Argentine et les régions voisines de Bolivie.
 </t>
         </is>
       </c>
